--- a/用例数据/转融通/市场化转融资/测试结果.xlsx
+++ b/用例数据/转融通/市场化转融资/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C71CD2-0FA6-499D-A432-BAC7E78778F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rc_cashborrowlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
   <si>
     <t>CONTRACTNO</t>
   </si>
@@ -634,9 +635,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -653,12 +651,24 @@
   </si>
   <si>
     <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,14 +987,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1161,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>56</v>
@@ -1226,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1799,7 +1812,7 @@
         <v>55</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>40</v>
@@ -1811,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>40</v>
@@ -1835,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>40</v>
@@ -1847,10 +1860,10 @@
         <v>55</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BX2" s="1" t="s">
         <v>37</v>
@@ -1859,7 +1872,7 @@
         <v>37</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>55</v>
@@ -1877,7 +1890,7 @@
         <v>37</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CK2" s="1" t="s">
         <v>190</v>
@@ -1886,13 +1899,13 @@
         <v>54</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CT2" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="CV2" s="1" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>56</v>
@@ -1904,16 +1917,16 @@
         <v>55</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>55</v>

--- a/用例数据/转融通/市场化转融资/测试结果.xlsx
+++ b/用例数据/转融通/市场化转融资/测试结果.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C71CD2-0FA6-499D-A432-BAC7E78778F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FDDE9-7025-4BDF-8713-F4F61AA70851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rc_cashborrowlog" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99990</t>
+    <t>99999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
